--- a/all_annotated/KLAC_Q4_2014_3.xlsx
+++ b/all_annotated/KLAC_Q4_2014_3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hp/Desktop/SubjECTive-QA/all_annotated/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7BCDDB8-E68B-46BE-B64E-AAB1CB251FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F1438-4BF8-0448-B167-939E94EC5399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33960" yWindow="-520" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="88">
   <si>
     <t>Asker</t>
   </si>
@@ -269,12 +269,6 @@
   </si>
   <si>
     <t>Patrick J. Ho</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rick, maybe first, a big kind of picture question on the reticle inspection business as a whole. We've seen a pickup in orders in recent quarters. But do you see any big structural changes in that business itself given that you are at much higher run rates coming out of the market correction in 2010 and '11 but we've kind of seen it really muted for the last, I would say, 3 years. Are there big changes coming around? Or do you see maybe a more sustained pickup as we enter 2015?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patrick, great question. I would say the following</t>
   </si>
   <si>
     <t xml:space="preserve"> Great. And my follow-up question on the wafer inspection business. You've seen a pickup, and you talked about the record orders this year. You've also mentioned that DRAM spending was up. I think in the past, you've noted that you expect the process control intensity for DRAM to be kind of split between metrology and inspection. I guess, after the last few quarters with DRAM spending has been up, are you seeing more of a bias towards inspection given that metrology is trying to hold steady? Or is that something where metrology will catch up down the line with, I guess, the capacity build on the DRAM side?</t>
@@ -314,6 +308,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -661,29 +656,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E38" sqref="E38"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33:K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="88.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="88.140625" style="2"/>
+    <col min="10" max="10" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="88.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +710,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -747,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -761,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -775,7 +770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -807,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -821,7 +816,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -853,7 +848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -867,7 +862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
@@ -881,7 +876,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="128" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -913,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>33</v>
       </c>
@@ -927,7 +922,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -941,7 +936,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -955,7 +950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="285" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="256" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>40</v>
       </c>
@@ -987,7 +982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -1019,7 +1014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="176" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1060,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1079,7 +1074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="192" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -1125,7 +1120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1157,7 +1152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -1171,7 +1166,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
@@ -1185,7 +1180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -1199,7 +1194,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1213,7 +1208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>66</v>
       </c>
@@ -1227,7 +1222,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
@@ -1241,7 +1236,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
@@ -1269,7 +1264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -1283,7 +1278,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>72</v>
       </c>
@@ -1291,21 +1286,42 @@
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>2</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="240" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2">
         <v>2</v>
@@ -1314,10 +1330,10 @@
         <v>2</v>
       </c>
       <c r="G32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="2">
         <v>2</v>
@@ -1326,18 +1342,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="144" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2">
         <v>2</v>
@@ -1358,62 +1374,62 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="160" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2">
         <v>2</v>
       </c>
       <c r="F35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2">
         <v>2</v>
@@ -1422,73 +1438,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>2</v>
-      </c>
-      <c r="G36" s="2">
-        <v>2</v>
-      </c>
-      <c r="H36" s="2">
-        <v>2</v>
-      </c>
-      <c r="I36" s="2">
-        <v>2</v>
-      </c>
-      <c r="J36" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>1</v>
-      </c>
-      <c r="G37" s="2">
-        <v>1</v>
-      </c>
-      <c r="H37" s="2">
-        <v>1</v>
-      </c>
-      <c r="I37" s="2">
-        <v>2</v>
-      </c>
-      <c r="J37" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
